--- a/data/welcomeLetters.xlsx
+++ b/data/welcomeLetters.xlsx
@@ -16,13 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
-  <si>
-    <t>Addison Medina,</t>
-  </si>
-  <si>
-    <t>Joselyn Vincent,</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
   <si>
     <t>Kira Jimenez,</t>
   </si>
@@ -30,68 +24,80 @@
     <t>Roger Branch,</t>
   </si>
   <si>
-    <t>Boston Pearson,</t>
-  </si>
-  <si>
     <t>William Dominguez,</t>
   </si>
   <si>
-    <t>Trevin Glass,</t>
-  </si>
-  <si>
-    <t>Pamela Sawyer,</t>
-  </si>
-  <si>
-    <t>Jaron Booker,</t>
-  </si>
-  <si>
-    <t>Lucille Hubbard,</t>
-  </si>
-  <si>
     <t>Giana Cameron,</t>
   </si>
   <si>
-    <t>Boston Joyce,</t>
-  </si>
-  <si>
     <t xml:space="preserve">Dear </t>
   </si>
   <si>
     <t>YES</t>
   </si>
   <si>
-    <t>si</t>
-  </si>
-  <si>
     <t>no</t>
   </si>
   <si>
-    <t>x</t>
-  </si>
-  <si>
     <t>Welcome back</t>
   </si>
   <si>
     <t>Welcome</t>
   </si>
   <si>
-    <t>Aquí pondria el parrafo de desarrollo. Aquí pondria el parrafo de desarrollo. Aquí pondria el parrafo de desarrollo. Aquí pondria el parrafo de desarrollo. Aquí pondria el parrafo de desarrollo. Aquí pondria el parrafo de desarrollo. Aquí pondria el parrafo de desarrollo.</t>
-  </si>
-  <si>
     <t>Kind regards</t>
   </si>
   <si>
-    <t>Margarita Perez</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Personal Trainer </t>
+    <t>Charles Vincent,</t>
+  </si>
+  <si>
+    <t>James Pearson,</t>
+  </si>
+  <si>
+    <t>Julian Glass,</t>
+  </si>
+  <si>
+    <t>Peter Booker,</t>
+  </si>
+  <si>
+    <t>Mikel Damon,</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Reception Manager</t>
+  </si>
+  <si>
+    <t>Richard Jones</t>
+  </si>
+  <si>
+    <t>Mary Alonso,</t>
+  </si>
+  <si>
+    <t>Pamela MacKenzy,</t>
+  </si>
+  <si>
+    <t>Lucille Schmith,</t>
+  </si>
+  <si>
+    <t>to &lt;(Hotel's Name)&gt; . It is our honor and pleasure to have you in our hotel. To know more about our services and amenities, just refer to the booklet found on the desk in your hotel room. Once again, we sincerely thank you for choosing us to be your home away from home. Have a pleasant stay!</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -105,19 +111,6 @@
       <name val="Helvetica Neue"/>
     </font>
     <font>
-      <b/>
-      <u/>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color theme="1"/>
@@ -125,138 +118,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-        <bgColor auto="1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="12"/>
-        <bgColor auto="1"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="8">
+  <borders count="1">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -266,37 +148,10 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -595,175 +450,131 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="16384" width="11.42578125" style="4"/>
+    <col min="1" max="1" width="19" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="25.5">
+    <row r="1" spans="1:9" ht="15.75">
       <c r="A1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3" t="s">
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="B7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1" s="4" t="s">
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="25.5">
-      <c r="A2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-    </row>
-    <row r="3" spans="1:9" ht="25.5">
-      <c r="A3" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="8" t="s">
+      <c r="B8" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-    </row>
-    <row r="4" spans="1:9" ht="25.5">
-      <c r="A4" s="5" t="s">
+      <c r="B9" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-    </row>
-    <row r="5" spans="1:9" ht="25.5">
-      <c r="A5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-    </row>
-    <row r="6" spans="1:9" ht="38.25">
-      <c r="A6" s="5" t="s">
+      <c r="B11" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-    </row>
-    <row r="7" spans="1:9" ht="25.5">
-      <c r="A7" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-    </row>
-    <row r="8" spans="1:9" ht="25.5">
-      <c r="A8" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-    </row>
-    <row r="9" spans="1:9" ht="25.5">
-      <c r="A9" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="6" t="s">
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-    </row>
-    <row r="10" spans="1:9" ht="25.5">
-      <c r="A10" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="6" t="s">
+      <c r="B12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-    </row>
-    <row r="11" spans="1:9" ht="25.5">
-      <c r="A11" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-    </row>
-    <row r="12" spans="1:9" ht="25.5">
-      <c r="A12" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
